--- a/data/trans_orig/P14A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC33BD2E-3FDF-45CA-9CA9-F7CF6CD44EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174F7E8-22A7-4777-9A88-0C9F36BC9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACAD7684-1393-4700-A475-F51729F040E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66C19AA8-6340-4803-A90C-BAA6CF99160A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -105,13 +105,13 @@
     <t>78,68%</t>
   </si>
   <si>
-    <t>42,22%</t>
+    <t>45,46%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>45,37%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -120,13 +120,13 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>54,54%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>54,63%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -135,37 +135,37 @@
     <t>86,77%</t>
   </si>
   <si>
-    <t>44,29%</t>
+    <t>44,34%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>70,08%</t>
+    <t>70,57%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>78,13%</t>
+    <t>76,98%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>55,71%</t>
+    <t>55,66%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>29,92%</t>
+    <t>29,43%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>21,87%</t>
+    <t>23,02%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -174,31 +174,37 @@
     <t>74,58%</t>
   </si>
   <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>53,41%</t>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>46,59%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -210,19 +216,19 @@
     <t>58,25%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -231,67 +237,67 @@
     <t>41,75%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>74,33%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -306,7 +312,7 @@
     <t>72,53%</t>
   </si>
   <si>
-    <t>13,15%</t>
+    <t>23,75%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -315,43 +321,43 @@
     <t>27,47%</t>
   </si>
   <si>
-    <t>86,85%</t>
+    <t>76,25%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -360,19 +366,19 @@
     <t>70,01%</t>
   </si>
   <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -381,19 +387,19 @@
     <t>29,99%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -402,19 +408,19 @@
     <t>69,01%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -423,103 +429,103 @@
     <t>30,99%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>66,28%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5E6B1-0B0B-449C-AB8A-230D1606C1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36123978-EB7F-40B5-A090-76346863708A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1556,7 @@
         <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1586,13 @@
         <v>5258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1595,13 +1601,13 @@
         <v>5258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1663,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1672,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -1684,13 +1690,13 @@
         <v>14111</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -1699,13 +1705,13 @@
         <v>20155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1735,13 +1741,13 @@
         <v>10112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1750,13 +1756,13 @@
         <v>10112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,10 +1830,10 @@
         <v>14365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -1839,13 +1845,13 @@
         <v>75343</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -1854,13 +1860,13 @@
         <v>89708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1881,13 @@
         <v>959</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -1890,13 +1896,13 @@
         <v>20257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -1905,13 +1911,13 @@
         <v>21216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,7 +1973,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34657CB5-CB56-4298-B742-B257FE2B66B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B6C72-6661-41A4-8402-5F6ABAD13A60}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2005,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2130,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2142,10 +2148,10 @@
         <v>4191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -2184,7 +2190,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2193,13 +2199,13 @@
         <v>1587</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2282,13 +2288,13 @@
         <v>12690</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2297,13 +2303,13 @@
         <v>16350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2333,13 +2339,13 @@
         <v>3116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2348,13 +2354,13 @@
         <v>3116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2437,13 +2443,13 @@
         <v>14987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2452,13 +2458,13 @@
         <v>23177</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2488,13 +2494,13 @@
         <v>6418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2503,13 +2509,13 @@
         <v>6418</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2592,13 +2598,13 @@
         <v>11786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2607,13 +2613,13 @@
         <v>16543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2640,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2643,13 +2649,13 @@
         <v>5291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2658,13 +2664,13 @@
         <v>5291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2726,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2753,13 @@
         <v>22287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2762,13 +2768,13 @@
         <v>23189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2804,13 @@
         <v>6108</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2813,13 +2819,13 @@
         <v>6108</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,10 +2893,10 @@
         <v>17509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -2902,13 +2908,13 @@
         <v>65940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -2917,13 +2923,13 @@
         <v>83449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2944,13 @@
         <v>1587</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2953,13 +2959,13 @@
         <v>20934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2968,13 +2974,13 @@
         <v>22521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,7 +3036,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174F7E8-22A7-4777-9A88-0C9F36BC9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C134743-E858-42A5-9BDC-58319D472698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66C19AA8-6340-4803-A90C-BAA6CF99160A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E47A4BCD-15BD-499A-A9E1-FC78AEBCA7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -105,13 +105,13 @@
     <t>78,68%</t>
   </si>
   <si>
-    <t>45,46%</t>
+    <t>43,27%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>45,37%</t>
+    <t>48,91%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -120,91 +120,91 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>54,54%</t>
+    <t>56,73%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>44,34%</t>
+    <t>44,11%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>70,57%</t>
+    <t>74,0%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>76,98%</t>
+    <t>78,65%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>55,66%</t>
+    <t>55,89%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>29,43%</t>
+    <t>26,0%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -216,19 +216,19 @@
     <t>58,25%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -237,73 +237,73 @@
     <t>41,75%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,33%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,67%</t>
+    <t>26,07%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por anemia en 2015 (Tasa respuesta: 1,52%)</t>
+    <t>Población que recibe medicación o terapia por anemia en 2016 (Tasa respuesta: 1,52%)</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -312,7 +312,7 @@
     <t>72,53%</t>
   </si>
   <si>
-    <t>23,75%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -321,43 +321,43 @@
     <t>27,47%</t>
   </si>
   <si>
-    <t>76,25%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -366,19 +366,19 @@
     <t>70,01%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -387,19 +387,19 @@
     <t>29,99%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -408,19 +408,19 @@
     <t>69,01%</t>
   </si>
   <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -429,103 +429,103 @@
     <t>30,99%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>66,28%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36123978-EB7F-40B5-A090-76346863708A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFDE622-5E28-481F-956B-313971501BC1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1994,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B6C72-6661-41A4-8402-5F6ABAD13A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042F6996-1BAE-446B-97E7-AF6A502D5A83}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
